--- a/formats/excel/SSR/2022/Formats RHA 22.xlsx
+++ b/formats/excel/SSR/2022/Formats RHA 22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/SSR/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40477464-3D0F-744C-9F94-FA918E9FA4C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EA5E3B-20A2-8648-964F-9FF43CD213C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,21 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
   <si>
     <t>libelle</t>
   </si>
@@ -434,13 +444,61 @@
   </si>
   <si>
     <t>ANNEESEMAINE</t>
+  </si>
+  <si>
+    <t>RHSNL</t>
+  </si>
+  <si>
+    <t>Groupage GENRHA Niveau de lourdeur</t>
+  </si>
+  <si>
+    <t>RHANL</t>
+  </si>
+  <si>
+    <t>Groupage Etablissement Niveau de lourdeur</t>
+  </si>
+  <si>
+    <t>Zone de valorisation</t>
+  </si>
+  <si>
+    <t>ZONEVALO</t>
+  </si>
+  <si>
+    <t>Score RR spécialisé</t>
+  </si>
+  <si>
+    <t>RRSPE</t>
+  </si>
+  <si>
+    <t>Dépendance physique</t>
+  </si>
+  <si>
+    <t>Dépendance physique maximale</t>
+  </si>
+  <si>
+    <t>Dépendance cognitive</t>
+  </si>
+  <si>
+    <t>Dépendance cognitive maximale</t>
+  </si>
+  <si>
+    <t>DEPPHY</t>
+  </si>
+  <si>
+    <t>DEPPHYMAX</t>
+  </si>
+  <si>
+    <t>DEPCOG</t>
+  </si>
+  <si>
+    <t>DEPCOGMAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,19 +510,37 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -472,13 +548,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,13 +882,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="0">C4+D4-D5</f>
+        <f t="shared" ref="F4:F26" si="0">C4+D4-D5</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -961,11 +1089,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
+      <c r="A9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -980,25 +1108,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>24</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1010,16 +1138,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>27</v>
@@ -1034,19 +1162,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>28</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1058,19 +1186,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
         <v>30</v>
-      </c>
-      <c r="E13">
-        <v>31</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1082,19 +1210,21 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
+        <f t="shared" ref="D14" si="1">E13+1</f>
+        <v>31</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ref="E14" si="2">D14+C14-1</f>
         <v>32</v>
-      </c>
-      <c r="E14">
-        <v>33</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1106,18 +1236,20 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>34</v>
-      </c>
-      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:D17" si="3">E14+1</f>
+        <v>33</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15:E17" si="4">D15+C15-1</f>
         <v>34</v>
       </c>
       <c r="F15">
@@ -1130,18 +1262,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="F16">
@@ -1153,20 +1287,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
+      <c r="A17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E17">
-        <v>38</v>
+      <c r="E17" s="3">
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1178,19 +1314,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>39</v>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D23" si="5">E17+1</f>
+        <v>37</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ref="E18:E23" si="6">D18+C18-1</f>
+        <v>37</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -1202,19 +1340,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="6"/>
         <v>40</v>
-      </c>
-      <c r="E19">
-        <v>43</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -1226,19 +1366,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>44</v>
-      </c>
-      <c r="E20">
-        <v>44</v>
+      <c r="D20" s="3">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="6"/>
+        <v>41</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -1250,88 +1392,99 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="6"/>
         <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>45</v>
-      </c>
-      <c r="E21">
-        <v>47</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>48</v>
-      </c>
-      <c r="E22">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="6"/>
+        <v>46</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>51</v>
-      </c>
-      <c r="E23">
-        <v>62</v>
+      <c r="E23" s="3">
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>63</v>
-      </c>
-      <c r="E24">
-        <v>63</v>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24" si="7">E23+1</f>
+        <v>50</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" ref="E24" si="8">D24+C24-1</f>
+        <v>50</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -1343,119 +1496,125 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:D71" si="9">E24+1</f>
+        <v>51</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25:E71" si="10">D25+C25-1</f>
         <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>64</v>
-      </c>
-      <c r="E25">
-        <v>70</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>71</v>
-      </c>
-      <c r="E26">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>74</v>
-      </c>
-      <c r="E27">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="10"/>
+        <v>66</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f>C27+D27-D28</f>
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <f>E27+1</f>
-        <v>77</v>
-      </c>
-      <c r="E28">
-        <v>79</v>
+        <v>7</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="10"/>
+        <v>73</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f>C28+D28-D29</f>
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>80</v>
-      </c>
-      <c r="E29">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="10"/>
+        <v>76</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>C29+D29-D30</f>
         <v>0</v>
       </c>
       <c r="G29" t="s">
@@ -1464,67 +1623,73 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>81</v>
-      </c>
-      <c r="E30">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="10"/>
+        <v>79</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f>C30+D30-D31</f>
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>86</v>
-      </c>
-      <c r="E31">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="10"/>
+        <v>82</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f>C31+D31-D32</f>
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>91</v>
-      </c>
-      <c r="E32">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="10"/>
+        <v>83</v>
       </c>
       <c r="F32">
         <f>C32+D32-D33</f>
@@ -1535,20 +1700,25 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>95</v>
-      </c>
-      <c r="E33">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="10"/>
+        <v>88</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f>C33+D33-D34</f>
         <v>0</v>
       </c>
       <c r="G33" t="s">
@@ -1557,22 +1727,24 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>101</v>
-      </c>
-      <c r="E34">
-        <v>101</v>
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="10"/>
+        <v>93</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f>C34+D34-D35</f>
         <v>0</v>
       </c>
       <c r="G34" t="s">
@@ -1581,23 +1753,24 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>102</v>
-      </c>
-      <c r="E35">
-        <f>E34+4</f>
-        <v>105</v>
+      <c r="D35" s="3">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="10"/>
+        <v>97</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f>C35+D35-D36</f>
         <v>0</v>
       </c>
       <c r="G35" t="s">
@@ -1605,23 +1778,22 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>106</v>
-      </c>
-      <c r="E36">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="10"/>
+        <v>103</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f>C36+D36-D37</f>
         <v>0</v>
       </c>
       <c r="G36" t="s">
@@ -1630,22 +1802,24 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>109</v>
-      </c>
-      <c r="E37">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f>C37+D37-D38</f>
         <v>0</v>
       </c>
       <c r="G37" t="s">
@@ -1654,22 +1828,24 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>118</v>
-      </c>
-      <c r="E38">
-        <v>118</v>
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="10"/>
+        <v>108</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f>C38+D38-D39</f>
         <v>0</v>
       </c>
       <c r="G38" t="s">
@@ -1678,22 +1854,24 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>119</v>
-      </c>
-      <c r="E39">
-        <v>119</v>
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="10"/>
+        <v>111</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f>C39+D39-D40</f>
         <v>0</v>
       </c>
       <c r="G39" t="s">
@@ -1702,22 +1880,24 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="E40">
-        <v>120</v>
-      </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f>C40+D40-D41</f>
         <v>0</v>
       </c>
       <c r="G40" t="s">
@@ -1726,22 +1906,24 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f>C41+D41-D42</f>
         <v>0</v>
       </c>
       <c r="G41" t="s">
@@ -1750,22 +1932,24 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
-      <c r="E42">
-        <v>123</v>
+      <c r="E42" s="3">
+        <f t="shared" si="10"/>
+        <v>122</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f>C42+D42-D43</f>
         <v>0</v>
       </c>
       <c r="G42" t="s">
@@ -1774,22 +1958,24 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>124</v>
-      </c>
-      <c r="E43">
-        <v>127</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="10"/>
+        <v>123</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f>C43+D43-D44</f>
         <v>0</v>
       </c>
       <c r="G43" t="s">
@@ -1798,22 +1984,24 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44">
-        <v>128</v>
-      </c>
-      <c r="E44">
-        <v>128</v>
+      <c r="D44" s="3">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="10"/>
+        <v>124</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f>C44+D44-D45</f>
         <v>0</v>
       </c>
       <c r="G44" t="s">
@@ -1822,22 +2010,24 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>129</v>
-      </c>
-      <c r="E45">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="10"/>
+        <v>126</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f>C45+D45-D46</f>
         <v>0</v>
       </c>
       <c r="G45" t="s">
@@ -1846,22 +2036,24 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="10"/>
         <v>130</v>
       </c>
-      <c r="E46">
-        <v>133</v>
-      </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f>C46+D46-D47</f>
         <v>0</v>
       </c>
       <c r="G46" t="s">
@@ -1870,22 +2062,24 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>134</v>
-      </c>
-      <c r="E47">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="9"/>
+        <v>131</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="10"/>
+        <v>131</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f>C47+D47-D48</f>
         <v>0</v>
       </c>
       <c r="G47" t="s">
@@ -1894,22 +2088,24 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>140</v>
-      </c>
-      <c r="E48">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="10"/>
+        <v>132</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f>C48+D48-D49</f>
         <v>0</v>
       </c>
       <c r="G48" t="s">
@@ -1918,22 +2114,24 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>145</v>
-      </c>
-      <c r="E49">
-        <v>146</v>
+        <v>4</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="9"/>
+        <v>133</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="10"/>
+        <v>136</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f>C49+D49-D50</f>
         <v>0</v>
       </c>
       <c r="G49" t="s">
@@ -1942,22 +2140,24 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>147</v>
-      </c>
-      <c r="E50">
-        <v>150</v>
+        <v>6</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="10"/>
+        <v>142</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f>C50+D50-D51</f>
         <v>0</v>
       </c>
       <c r="G50" t="s">
@@ -1966,22 +2166,24 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C51">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>151</v>
-      </c>
-      <c r="E51">
-        <v>156</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="9"/>
+        <v>143</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="10"/>
+        <v>147</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f>C51+D51-D52</f>
         <v>0</v>
       </c>
       <c r="G51" t="s">
@@ -1990,22 +2192,24 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C52">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>157</v>
-      </c>
-      <c r="E52">
-        <v>162</v>
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="9"/>
+        <v>148</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="10"/>
+        <v>149</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f>C52+D52-D53</f>
         <v>0</v>
       </c>
       <c r="G52" t="s">
@@ -2014,22 +2218,24 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>163</v>
-      </c>
-      <c r="E53">
-        <v>168</v>
+        <v>4</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="10"/>
+        <v>153</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f>C53+D53-D54</f>
         <v>0</v>
       </c>
       <c r="G53" t="s">
@@ -2038,22 +2244,24 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>169</v>
-      </c>
-      <c r="E54">
-        <v>169</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="10"/>
+        <v>159</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f>C54+D54-D55</f>
         <v>0</v>
       </c>
       <c r="G54" t="s">
@@ -2062,22 +2270,24 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>170</v>
-      </c>
-      <c r="E55">
-        <v>170</v>
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="10"/>
+        <v>165</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f>C55+D55-D56</f>
         <v>0</v>
       </c>
       <c r="G55" t="s">
@@ -2086,22 +2296,24 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
-      <c r="E56">
-        <v>171</v>
-      </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f>C56+D56-D57</f>
         <v>0</v>
       </c>
       <c r="G56" t="s">
@@ -2110,22 +2322,24 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f>C57+D57-D58</f>
         <v>0</v>
       </c>
       <c r="G57" t="s">
@@ -2134,22 +2348,24 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
+        <f t="shared" si="9"/>
         <v>173</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f>C58+D58-D59</f>
         <v>0</v>
       </c>
       <c r="G58" t="s">
@@ -2158,22 +2374,24 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
+        <f t="shared" si="9"/>
         <v>174</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f>C59+D59-D60</f>
         <v>0</v>
       </c>
       <c r="G59" t="s">
@@ -2182,202 +2400,431 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
-      <c r="E60">
-        <v>176</v>
+      <c r="E60" s="3">
+        <f t="shared" si="10"/>
+        <v>175</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f>C60+D60-D61</f>
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>177</v>
-      </c>
-      <c r="E61">
-        <v>179</v>
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="10"/>
+        <v>176</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f>C61+D61-D62</f>
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>180</v>
-      </c>
-      <c r="E62">
-        <v>181</v>
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="9"/>
+        <v>177</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="10"/>
+        <v>177</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f>C62+D62-D63</f>
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="9"/>
+        <v>178</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="10"/>
+        <v>179</v>
+      </c>
+      <c r="F63">
+        <f>C63+D63-D64</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
-      <c r="E63">
-        <v>182</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>183</v>
-      </c>
-      <c r="E64">
-        <v>183</v>
-      </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f>C64+D64-D65</f>
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
+        <f t="shared" si="9"/>
+        <v>183</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
-      <c r="E65">
-        <v>185</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="0"/>
+      <c r="F65">
+        <f>C65+D65-D66</f>
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="10"/>
+        <v>185</v>
+      </c>
+      <c r="F66">
+        <f>C66+D66-D67</f>
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="9"/>
+        <v>186</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="10"/>
+        <v>186</v>
+      </c>
+      <c r="F67">
+        <f>C67+D67-D68</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="9"/>
+        <v>187</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
+      <c r="F68" s="1">
+        <f>C68+D68-D69</f>
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>121</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>122</v>
       </c>
-      <c r="C66">
+      <c r="C69">
         <v>2</v>
       </c>
-      <c r="D66">
-        <v>186</v>
-      </c>
-      <c r="E66">
-        <v>187</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="D69" s="3">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="F69" s="1">
+        <f>C69+D69-D70</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>123</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>124</v>
       </c>
-      <c r="C67">
+      <c r="C70">
         <v>5</v>
       </c>
-      <c r="D67">
-        <v>188</v>
-      </c>
-      <c r="E67">
-        <v>192</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="D70" s="3">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="10"/>
+        <v>195</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" ref="F70:F76" si="11">C70+D70-D71</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" ref="D71:D75" si="12">E70+1</f>
+        <v>196</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" ref="E71:E75" si="13">D71+C71-1</f>
+        <v>200</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="12"/>
+        <v>201</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="12"/>
+        <v>203</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="13"/>
+        <v>204</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="12"/>
+        <v>205</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="12"/>
+        <v>207</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="13"/>
+        <v>208</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>125</v>
       </c>
-      <c r="D68">
-        <v>193</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" t="s">
+      <c r="D76" s="3">
+        <f t="shared" ref="D76" si="14">E75+1</f>
+        <v>209</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="1">
+        <f t="shared" si="11"/>
+        <v>209</v>
+      </c>
+      <c r="G76" t="s">
         <v>9</v>
       </c>
     </row>

--- a/formats/excel/SSR/2022/Formats RHA 22.xlsx
+++ b/formats/excel/SSR/2022/Formats RHA 22.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/SSR/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10919935\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EA5E3B-20A2-8648-964F-9FF43CD213C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -293,9 +292,6 @@
     <t>Journées hors week-end</t>
   </si>
   <si>
-    <t>JOURNESS_HWE</t>
-  </si>
-  <si>
     <t>Journées week-end</t>
   </si>
   <si>
@@ -492,13 +488,16 @@
   </si>
   <si>
     <t>DEPCOGMAX</t>
+  </si>
+  <si>
+    <t>JOURNEES_HWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,7 +628,7 @@
   <a:themeElements>
     <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -881,23 +880,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="45.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -944,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -968,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -992,7 +991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1088,12 +1087,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1112,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1286,12 +1285,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1312,7 +1311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1468,12 +1467,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -1494,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1505,11 +1504,11 @@
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" ref="D25:D71" si="9">E24+1</f>
+        <f t="shared" ref="D25:D70" si="9">E24+1</f>
         <v>51</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" ref="E25:E71" si="10">D25+C25-1</f>
+        <f t="shared" ref="E25:E70" si="10">D25+C25-1</f>
         <v>53</v>
       </c>
       <c r="F25">
@@ -1520,7 +1519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1562,14 +1561,14 @@
         <v>66</v>
       </c>
       <c r="F27">
-        <f>C27+D27-D28</f>
+        <f t="shared" ref="F27:F69" si="11">C27+D27-D28</f>
         <v>0</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1588,14 +1587,14 @@
         <v>73</v>
       </c>
       <c r="F28">
-        <f>C28+D28-D29</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1614,16 +1613,16 @@
         <v>76</v>
       </c>
       <c r="F29">
-        <f>C29+D29-D30</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
@@ -1640,19 +1639,19 @@
         <v>79</v>
       </c>
       <c r="F30">
-        <f>C30+D30-D31</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1666,14 +1665,14 @@
         <v>82</v>
       </c>
       <c r="F31">
-        <f>C31+D31-D32</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1692,14 +1691,14 @@
         <v>83</v>
       </c>
       <c r="F32">
-        <f>C32+D32-D33</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1718,19 +1717,19 @@
         <v>88</v>
       </c>
       <c r="F33">
-        <f>C33+D33-D34</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
         <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1744,14 +1743,14 @@
         <v>93</v>
       </c>
       <c r="F34">
-        <f>C34+D34-D35</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -1770,16 +1769,16 @@
         <v>97</v>
       </c>
       <c r="F35">
-        <f>C35+D35-D36</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="B36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1793,14 +1792,14 @@
         <v>103</v>
       </c>
       <c r="F36">
-        <f>C36+D36-D37</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1819,19 +1818,19 @@
         <v>104</v>
       </c>
       <c r="F37">
-        <f>C37+D37-D38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
         <v>132</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1845,14 +1844,14 @@
         <v>108</v>
       </c>
       <c r="F38">
-        <f>C38+D38-D39</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1871,14 +1870,14 @@
         <v>111</v>
       </c>
       <c r="F39">
-        <f>C39+D39-D40</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1897,14 +1896,14 @@
         <v>120</v>
       </c>
       <c r="F40">
-        <f>C40+D40-D41</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1923,14 +1922,14 @@
         <v>121</v>
       </c>
       <c r="F41">
-        <f>C41+D41-D42</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1949,14 +1948,14 @@
         <v>122</v>
       </c>
       <c r="F42">
-        <f>C42+D42-D43</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1975,14 +1974,14 @@
         <v>123</v>
       </c>
       <c r="F43">
-        <f>C43+D43-D44</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -2001,19 +2000,19 @@
         <v>124</v>
       </c>
       <c r="F44">
-        <f>C44+D44-D45</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
         <v>134</v>
-      </c>
-      <c r="B45" t="s">
-        <v>135</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2027,19 +2026,19 @@
         <v>126</v>
       </c>
       <c r="F45">
-        <f>C45+D45-D46</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
         <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2053,14 +2052,14 @@
         <v>130</v>
       </c>
       <c r="F46">
-        <f>C46+D46-D47</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2079,14 +2078,14 @@
         <v>131</v>
       </c>
       <c r="F47">
-        <f>C47+D47-D48</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2105,14 +2104,14 @@
         <v>132</v>
       </c>
       <c r="F48">
-        <f>C48+D48-D49</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2131,14 +2130,14 @@
         <v>136</v>
       </c>
       <c r="F49">
-        <f>C49+D49-D50</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -2157,19 +2156,19 @@
         <v>142</v>
       </c>
       <c r="F50">
-        <f>C50+D50-D51</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2183,19 +2182,19 @@
         <v>147</v>
       </c>
       <c r="F51">
-        <f>C51+D51-D52</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
         <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2209,19 +2208,19 @@
         <v>149</v>
       </c>
       <c r="F52">
-        <f>C52+D52-D53</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
         <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -2235,19 +2234,19 @@
         <v>153</v>
       </c>
       <c r="F53">
-        <f>C53+D53-D54</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
         <v>92</v>
-      </c>
-      <c r="B54" t="s">
-        <v>93</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -2261,19 +2260,19 @@
         <v>159</v>
       </c>
       <c r="F54">
-        <f>C54+D54-D55</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
         <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -2287,19 +2286,19 @@
         <v>165</v>
       </c>
       <c r="F55">
-        <f>C55+D55-D56</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
         <v>96</v>
-      </c>
-      <c r="B56" t="s">
-        <v>97</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -2313,19 +2312,19 @@
         <v>171</v>
       </c>
       <c r="F56">
-        <f>C56+D56-D57</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
         <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>99</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2339,19 +2338,19 @@
         <v>172</v>
       </c>
       <c r="F57">
-        <f>C57+D57-D58</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
         <v>100</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2365,19 +2364,19 @@
         <v>173</v>
       </c>
       <c r="F58">
-        <f>C58+D58-D59</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
         <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2391,19 +2390,19 @@
         <v>174</v>
       </c>
       <c r="F59">
-        <f>C59+D59-D60</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
         <v>104</v>
-      </c>
-      <c r="B60" t="s">
-        <v>105</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2417,19 +2416,19 @@
         <v>175</v>
       </c>
       <c r="F60">
-        <f>C60+D60-D61</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
         <v>106</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2443,19 +2442,19 @@
         <v>176</v>
       </c>
       <c r="F61">
-        <f>C61+D61-D62</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
         <v>108</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2469,19 +2468,19 @@
         <v>177</v>
       </c>
       <c r="F62">
-        <f>C62+D62-D63</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
         <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>111</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -2495,19 +2494,19 @@
         <v>179</v>
       </c>
       <c r="F63">
-        <f>C63+D63-D64</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" t="s">
         <v>112</v>
-      </c>
-      <c r="B64" t="s">
-        <v>113</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -2521,19 +2520,19 @@
         <v>182</v>
       </c>
       <c r="F64">
-        <f>C64+D64-D65</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
         <v>114</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -2547,19 +2546,19 @@
         <v>184</v>
       </c>
       <c r="F65">
-        <f>C65+D65-D66</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" t="s">
         <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2573,16 +2572,16 @@
         <v>185</v>
       </c>
       <c r="F66">
-        <f>C66+D66-D67</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="B67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2596,19 +2595,19 @@
         <v>186</v>
       </c>
       <c r="F67">
-        <f>C67+D67-D68</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
         <v>119</v>
-      </c>
-      <c r="B68" t="s">
-        <v>120</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -2622,19 +2621,19 @@
         <v>188</v>
       </c>
       <c r="F68" s="1">
-        <f>C68+D68-D69</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
         <v>121</v>
-      </c>
-      <c r="B69" t="s">
-        <v>122</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -2648,19 +2647,19 @@
         <v>190</v>
       </c>
       <c r="F69" s="1">
-        <f>C69+D69-D70</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
         <v>123</v>
-      </c>
-      <c r="B70" t="s">
-        <v>124</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -2674,154 +2673,154 @@
         <v>195</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F76" si="11">C70+D70-D71</f>
+        <f t="shared" ref="F70:F76" si="12">C70+D70-D71</f>
         <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71" s="3">
-        <f t="shared" ref="D71:D75" si="12">E70+1</f>
+        <f t="shared" ref="D71:D75" si="13">E70+1</f>
         <v>196</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" ref="E71:E75" si="13">D71+C71-1</f>
+        <f t="shared" ref="E71:E75" si="14">D71+C71-1</f>
         <v>200</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
       </c>
       <c r="D72" s="3">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+      <c r="F72" s="1">
         <f t="shared" si="12"/>
-        <v>201</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="13"/>
-        <v>202</v>
-      </c>
-      <c r="F72" s="1">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="3">
         <v>2</v>
       </c>
       <c r="D73" s="3">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+      <c r="F73" s="1">
         <f t="shared" si="12"/>
-        <v>203</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="13"/>
-        <v>204</v>
-      </c>
-      <c r="F73" s="1">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="3">
         <v>2</v>
       </c>
       <c r="D74" s="3">
+        <f t="shared" si="13"/>
+        <v>205</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="14"/>
+        <v>206</v>
+      </c>
+      <c r="F74" s="1">
         <f t="shared" si="12"/>
-        <v>205</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="13"/>
-        <v>206</v>
-      </c>
-      <c r="F74" s="1">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" s="3">
         <v>2</v>
       </c>
       <c r="D75" s="3">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="F75" s="1">
         <f t="shared" si="12"/>
-        <v>207</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="13"/>
-        <v>208</v>
-      </c>
-      <c r="F75" s="1">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="B76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D76" s="3">
-        <f t="shared" ref="D76" si="14">E75+1</f>
+        <f t="shared" ref="D76" si="15">E75+1</f>
         <v>209</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>209</v>
       </c>
       <c r="G76" t="s">
